--- a/Data/RN_BM/BM_celltype_matrix.xlsx
+++ b/Data/RN_BM/BM_celltype_matrix.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z3283497\python\Annatina\AS_amplicons\Data\RN_BM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BAB3D6-E16F-4B88-91F3-46AA6E06DF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41F6920-C917-4DF7-8117-35E058CE735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{8772E36A-ADCA-4D70-B88A-A558908264C4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" activeTab="1" xr2:uid="{8772E36A-ADCA-4D70-B88A-A558908264C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="For notebook" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="38">
   <si>
     <t>CD34_pos</t>
   </si>
@@ -89,13 +90,73 @@
   </si>
   <si>
     <t>CD90_neg</t>
+  </si>
+  <si>
+    <t>GMP2</t>
+  </si>
+  <si>
+    <t>IL1RAP_neg</t>
+  </si>
+  <si>
+    <t>lsc</t>
+  </si>
+  <si>
+    <t>hsc</t>
+  </si>
+  <si>
+    <t>mpp</t>
+  </si>
+  <si>
+    <t>lmpp</t>
+  </si>
+  <si>
+    <t>cmp</t>
+  </si>
+  <si>
+    <t>gmp2</t>
+  </si>
+  <si>
+    <t>mep</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>gmp</t>
+  </si>
+  <si>
+    <t>,1,2,3,4,5,6,7,8,9,10,11</t>
+  </si>
+  <si>
+    <t>hsc,CD34_pos,CD38_neg,IL1RAP_neg,CD45RA_neg,CD90_pos,</t>
+  </si>
+  <si>
+    <t>mpp,CD34_pos,CD38_neg,IL1RAP_neg,CD45RA_neg,CD90_neg</t>
+  </si>
+  <si>
+    <t>cmp,CD34_pos,CD38_pos,IL1RAP_neg,CD45RA_neg,CD123_pos,</t>
+  </si>
+  <si>
+    <t>gmp,CD34_pos,CD38_pos,IL1RAP_neg,CD45RA_pos,CD123_pos,</t>
+  </si>
+  <si>
+    <t>gmp2,CD34_pos,CD38_pos,IL1RAP_neg,CD45RA_pos,CD123_neg,</t>
+  </si>
+  <si>
+    <t>mep,CD34_pos,CD38_pos,IL1RAP_neg,CD45RA_neg,CD123_neg,</t>
+  </si>
+  <si>
+    <t>lsc,CD34_pos,CD38_neg,IL1RAP_pos,</t>
+  </si>
+  <si>
+    <t>lmpp,CD34_pos,CD38_neg,IL1RAP_neg,CD45RA_pos,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +166,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -124,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -132,11 +206,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -153,6 +307,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -467,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3576002C-C66E-4CBD-A563-EC944955F0D5}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -486,7 +681,7 @@
     <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>13</v>
       </c>
@@ -502,28 +697,31 @@
       <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -539,7 +737,7 @@
       <c r="E2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="b">
+      <c r="F2" s="10" t="b">
         <v>0</v>
       </c>
       <c r="G2" s="5" t="b">
@@ -557,10 +755,13 @@
       <c r="K2" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -576,28 +777,31 @@
       <c r="E3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5" t="b">
-        <v>0</v>
+      <c r="F3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="I3" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3"/>
+      <c r="J3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -613,28 +817,31 @@
       <c r="E4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5" t="b">
-        <v>0</v>
+      <c r="F4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="I4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="J4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -650,28 +857,31 @@
       <c r="E5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5" t="b">
+      <c r="F5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="b">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="J5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="J5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -687,28 +897,31 @@
       <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5" t="b">
+      <c r="F6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="K6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
@@ -724,80 +937,111 @@
       <c r="E7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="b">
+      <c r="F7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="b">
         <v>0</v>
       </c>
       <c r="K7" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="B9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="b">
+        <v>0</v>
+      </c>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -812,7 +1056,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -827,33 +1071,35 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -866,7 +1112,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -879,7 +1125,7 @@
       <c r="J15" s="1"/>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -933,16 +1179,29 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
+      <c r="H20" s="1"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,323 +1211,772 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE864B32-591D-41C8-82DC-CBD77A8E739D}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:L12"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K2" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L2" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L6" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="9" t="str">
+        <f t="shared" ref="N13:N20" si="0">A13&amp;M13&amp;B13&amp;M13&amp;C13&amp;M13&amp;D13&amp;M13&amp;E13&amp;M13&amp;F13&amp;M13&amp;G13&amp;M13&amp;H13&amp;M13&amp;I13&amp;M13&amp;J13&amp;M13&amp;K13&amp;M13&amp;L13</f>
+        <v>lsc,CD34_pos,,CD38_neg,IL1RAP_pos,,,,,,,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" s="19"/>
+      <c r="M14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>hsc,CD34_pos,,CD38_neg,,IL1RAP_neg,,CD45RA_neg,,,CD90_pos,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="18"/>
+      <c r="H15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>mpp,CD34_pos,,CD38_neg,,IL1RAP_neg,,CD45RA_neg,,,,CD90_neg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="18"/>
+      <c r="F16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>lmpp,CD34_pos,,CD38_neg,,IL1RAP_neg,CD45RA_pos,,,,,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A17" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>cmp,CD34_pos,CD38_pos,,,IL1RAP_neg,,CD45RA_neg,CD123_pos,,,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H18" s="18"/>
+      <c r="I18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>gmp,CD34_pos,CD38_pos,,,IL1RAP_neg,CD45RA_pos,,CD123_pos,,,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>gmp2,CD34_pos,CD38_pos,,,IL1RAP_neg,CD45RA_pos,,,CD123_neg,,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="9" t="str">
+        <f t="shared" si="0"/>
+        <v>mep,CD34_pos,CD38_pos,,,IL1RAP_neg,,CD45RA_neg,,CD123_neg,,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>1</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3</v>
+      </c>
+      <c r="E21" s="9">
+        <v>4</v>
+      </c>
+      <c r="F21" s="9">
+        <v>5</v>
+      </c>
+      <c r="G21" s="9">
+        <v>6</v>
+      </c>
+      <c r="H21" s="9">
+        <v>7</v>
+      </c>
+      <c r="I21" s="9">
+        <v>8</v>
+      </c>
+      <c r="J21" s="9">
+        <v>9</v>
+      </c>
+      <c r="K21" s="9">
+        <v>10</v>
+      </c>
+      <c r="L21" s="9">
+        <v>11</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="9" t="str">
+        <f>A21&amp;M21&amp;B21&amp;M21&amp;C21&amp;M21&amp;D21&amp;M21&amp;E21&amp;M21&amp;F21&amp;M21&amp;G21&amp;M21&amp;H21&amp;M21&amp;I21&amp;M21&amp;J21&amp;M21&amp;K21&amp;M21&amp;L21</f>
+        <v>,1,2,3,4,5,6,7,8,9,10,11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="9" t="str">
+        <f t="shared" ref="N14:N22" si="1">B22&amp;M22&amp;C22&amp;M22&amp;D22&amp;M22&amp;E22&amp;M22&amp;F22&amp;G22&amp;M22&amp;G22&amp;M22&amp;H22&amp;M22&amp;I22&amp;M22&amp;J22&amp;M22&amp;K22&amp;M22&amp;L22</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D85" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC81D08-733E-44BA-81B2-409DB3CC8BE1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:11" ht="28" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <f>IF(C2=TRUE, FALSE, TRUE)</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3" t="b">
-        <f>IF(F2=TRUE, FALSE, TRUE)</f>
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3" t="b">
-        <f>IF(H2=TRUE, FALSE, TRUE)</f>
-        <v>1</v>
-      </c>
-      <c r="J2" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3" t="b">
-        <f>IF(J2=TRUE, FALSE, TRUE)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3" t="b">
-        <f t="shared" ref="D3:D8" si="0">IF(C3=TRUE, FALSE, TRUE)</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G8" si="1">IF(F3=TRUE, FALSE, TRUE)</f>
-        <v>1</v>
-      </c>
-      <c r="H3" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3" t="b">
-        <f t="shared" ref="I3:I8" si="2">IF(H3=TRUE, FALSE, TRUE)</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="b">
-        <f t="shared" ref="K3:K8" si="3">IF(J3=TRUE, FALSE, TRUE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J5" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>